--- a/biology/Botanique/Jonc/Jonc.xlsx
+++ b/biology/Botanique/Jonc/Jonc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le nom de jonc  /ʒɔ̃/ ou /ʒɔ̃:k/ est donné à plusieurs plantes. Au sens strict, ce nom désigne les espèces appartenant au genre Juncus, dans la famille des Juncaceae.
 Jonc - au sens strict (du latin jungere, « joindre, attacher », les joncs servant à faire des liens plus ou moins solides) les espèces du genre Juncus
@@ -493,8 +505,8 @@
 Jonc marin - désigne parfois l'Armérie maritime (Armeria maritima)
 Jonc des dunes - un des noms de l'oyat (Ammophila arenaria)
 Jonc à massette ou massette, les espèces du genre Typha, espèces qui poussent dans les zones humides, mare, étang, etc.
-Jonc d'Inde - synonyme de rotin[1]
-Jonc des Pyrénées - autre synonyme de rotin[1]</t>
+Jonc d'Inde - synonyme de rotin
+Jonc des Pyrénées - autre synonyme de rotin</t>
         </is>
       </c>
     </row>
@@ -522,9 +534,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces de joncs ont notamment été utilisés pour la vannerie et l'empaillage de chaises : en Europe de l'ouest, selon Éliane Astier et Bernard Bertrand, il s'agit de Jonc aggloméré, Jonc aigu, Jonc diffus, Jonc glauque, Jonc maritime, Scirpe des tonneliers, Scirpe en jonc[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de joncs ont notamment été utilisés pour la vannerie et l'empaillage de chaises : en Europe de l'ouest, selon Éliane Astier et Bernard Bertrand, il s'agit de Jonc aggloméré, Jonc aigu, Jonc diffus, Jonc glauque, Jonc maritime, Scirpe des tonneliers, Scirpe en jonc.
 </t>
         </is>
       </c>
